--- a/FinanceBoard/data/receitas_despesas.xlsx
+++ b/FinanceBoard/data/receitas_despesas.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>45800</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -495,6 +495,96 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>Camisa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Despesa</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Teste</t>
         </is>
       </c>
     </row>

--- a/FinanceBoard/data/receitas_despesas.xlsx
+++ b/FinanceBoard/data/receitas_despesas.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>45800</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,6 +585,42 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>Teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Receita</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>aa</t>
         </is>
       </c>
     </row>
